--- a/Data/PropStudy/510014postBD.xlsx
+++ b/Data/PropStudy/510014postBD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\OneDrive\Desktop\SeniorDesign\Data\PropStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\OneDrive\Desktop\SeniorDesignFinal\Data\PropStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F660E3C-D1A3-4552-AF16-58E70E907EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35068FA4-E699-460D-A3CB-648A39E9B190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="4215" windowWidth="12150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="510014 postBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Timestamp</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Work of Breathing</t>
+  </si>
+  <si>
+    <t>yup</t>
   </si>
 </sst>
 </file>
@@ -968,1580 +971,1611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>11*60+18.6</f>
+        <v>678.6</v>
+      </c>
+      <c r="C2" s="1">
         <v>7.8541666666666673E-3</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>101.3586</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>93.387699999999995</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>137.4204</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>139.03309999999999</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>139.03309999999999</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>72.972980000000007</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>78.947360000000003</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>75.675669999999997</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>7.9709469999999998</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.77456499999999995</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>49.315069999999999</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>11.811540000000001</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.6</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.61666670000000001</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>1.0277780000000001</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.50684929999999995</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.55555549999999998</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>1.2166669999999999</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>51.109650000000002</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>53.887920000000001</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>4.6054209999999998</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>528.06820000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
         <v>7.8680555555555552E-3</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>66.118409999999997</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>90.491460000000004</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>137.57640000000001</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>133.47999999999999</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>133.47999999999999</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>80</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>75</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>76.666659999999993</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>24.373049999999999</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.68120270000000005</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.60933950000000003</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>61.016950000000001</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>11.851430000000001</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.46666669999999999</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.51666670000000003</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>1.107143</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.52542370000000005</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.46428570000000002</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.98333329999999997</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>25.568449999999999</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>48.180019999999999</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>5.5215129999999997</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>674.28409999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
         <v>7.8796296296296305E-3</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>61.764890000000001</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>52.324460000000002</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>142.46279999999999</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>143.405</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>143.405</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>77.419359999999998</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>82.758619999999993</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>79.661019999999994</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>9.4404299999999992</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.85249299999999995</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.379156</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>63.157890000000002</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>12.818339999999999</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.5</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.45</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.9</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.4736842</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.5</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.95</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>25.9193</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>48.012610000000002</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>3.3047029999999999</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>1207.0429999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>7.890046296296296E-3</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>37.357909999999997</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>53.624020000000002</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>151.97829999999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>149.88399999999999</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>149.88399999999999</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>79.166659999999993</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>79.31035</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>78.846149999999994</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>16.266110000000001</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1.1005119999999999</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1.3205070000000001</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>70.588229999999996</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>12.34464</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.38333329999999999</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.46666669999999999</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>1.2173909999999999</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.54901960000000005</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.52173910000000001</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.85</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>47.763599999999997</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>79.018100000000004</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>3.7852250000000001</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>1316.355</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>11*60+23</f>
+        <v>683</v>
+      </c>
+      <c r="C6" s="1">
         <v>7.9004629629629633E-3</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>88.724850000000004</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>97.872069999999994</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>128.33699999999999</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>128.61490000000001</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>128.61490000000001</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>69.565219999999997</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>71.428569999999993</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>70</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>9.1472169999999995</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1.124325</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.58525660000000002</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>45.56962</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>14.32423</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.75</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.56666669999999997</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.75555559999999999</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.43037969999999998</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.4</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>1.316667</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>62.034889999999997</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>107.38379999999999</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>4.4599929999999999</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>465.60390000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>11*60+33</f>
+        <v>693</v>
+      </c>
+      <c r="C7" s="1">
         <v>8.0185185185185186E-3</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>71.605959999999996</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>70.719970000000004</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>146.92740000000001</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>147.76609999999999</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>147.76609999999999</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>85.294120000000007</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>83.870959999999997</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>84.375</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.8859863</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.1437589</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>58.064520000000002</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>15.459960000000001</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.48333330000000002</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.87878780000000001</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.46774189999999999</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.48484850000000002</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>1.0333330000000001</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>60.346910000000001</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>105.6207</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>4.1063210000000003</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>821.04830000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>11*60+33</f>
+        <v>693</v>
+      </c>
+      <c r="C8" s="1">
         <v>8.0300925925925921E-3</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>70.642089999999996</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>47.982669999999999</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>151.89920000000001</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>154.97810000000001</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>154.97810000000001</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>84.848489999999998</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>87.5</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>85.714290000000005</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>22.659420000000001</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.31514700000000001</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.015458</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>59.016399999999997</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>15.491210000000001</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.51666670000000003</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.5</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.96774199999999999</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.4918033</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.51612910000000001</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>1.016667</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>86.514949999999999</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>172.0694</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>2.8317640000000002</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>1229.952</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>11*60+35</f>
+        <v>695</v>
+      </c>
+      <c r="C9" s="1">
         <v>8.0416666666666674E-3</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>79.792240000000007</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>78.696290000000005</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>146.62010000000001</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>146.84540000000001</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>146.84540000000001</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>84.210530000000006</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>84.375</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>83.823530000000005</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>1.095947</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.60048040000000003</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.86073549999999999</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>53.731340000000003</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>25.804839999999999</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.6</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.51666670000000003</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.86111099999999996</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.4626865</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.5</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>1.1166670000000001</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>104.81480000000001</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>219.3383</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>4.2284569999999997</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>682.76840000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>14*60+2.7</f>
+        <v>842.7</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.59308646990740743</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>31.057860000000002</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>27.59985</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>153.43020000000001</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>152.34800000000001</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>152.34800000000001</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>85.714290000000005</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>81.818179999999998</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>83.333340000000007</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>3.458008</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>-0.34906989999999999</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>87.804879999999997</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>14.13001</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.3333333</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.35</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1.05</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.51219510000000001</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.5</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.68333330000000003</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>39.690829999999998</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>36.569049999999997</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>2.4234019999999998</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>3181.3530000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>0.5930943865740741</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>99.246340000000004</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>85.412840000000003</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>143.79339999999999</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>141.58080000000001</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>141.58080000000001</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>74.074070000000006</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>82.142859999999999</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>77.358490000000003</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>13.833500000000001</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-0.60215540000000001</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-0.26083679999999998</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>70.588229999999996</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>16.28753</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.4166667</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.43333329999999998</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>1.04</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.50980389999999998</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.48</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.85</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>39.859229999999997</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>36.745089999999998</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>6.0291420000000002</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>826.43589999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>0.59310422453703704</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>172.6824</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>141.7595</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>113.2886</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>122.6267</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>122.6267</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>66.666659999999993</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>71.428569999999993</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>68.421049999999994</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>30.92285</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>-0.22977620000000001</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>-1.69225E-2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>64.285709999999995</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>16.195740000000001</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.48333330000000002</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.45</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>0.93103449999999999</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.48214279999999998</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>0.48275859999999998</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.93333330000000003</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>39.858539999999998</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>35.996459999999999</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>9.1131119999999992</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>453.48430000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>0.59311502314814812</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>125.5166</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>147.7595</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>124.66970000000001</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>120.9868</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>120.9868</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>75</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>67.857140000000001</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>70.909090000000006</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>22.242920000000002</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>8.2980940000000003E-2</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.21218619999999999</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>66.666669999999996</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>16.314689999999999</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.45</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.45</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.5</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>0.48148150000000001</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.9</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>39.896850000000001</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>38.703679999999999</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>9.8506350000000005</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>451.18360000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>0.5931254398148148</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>91.807370000000006</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>88.347170000000006</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>133.4332</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>135.33340000000001</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>135.33340000000001</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>75</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>77.777780000000007</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>75.925929999999994</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>3.4602050000000002</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>-1.899766E-2</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>-0.21760019999999999</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>69.230770000000007</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>13.316179999999999</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.45</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.4166667</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>0.92592589999999997</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>0.48076920000000001</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>0.48148150000000001</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.86666670000000001</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>40.70861</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>39.268329999999999</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>6.1163429999999996</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>783.62180000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>0.59313547453703708</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>103.5164</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>70.438720000000004</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>120.2512</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>127.11320000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>127.11320000000001</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>58.620690000000003</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>73.076920000000001</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>62.195120000000003</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>33.077640000000002</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>7.810277E-3</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>44.44444</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>14.43014</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.93333330000000003</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>0.4166667</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>0.44642860000000001</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>0.30864200000000003</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>0.25</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>1.35</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>41.032209999999999</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>39.778350000000003</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>3.1306099999999999</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>630.96609999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>19*60</f>
+        <v>1140</v>
+      </c>
+      <c r="C16" s="1">
         <v>1.3195601851851852E-2</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>187.3254</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>173.7021</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>43.507370000000002</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>43.43468</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>43.43468</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>27.586210000000001</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>30.76923</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>26.415089999999999</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>13.623290000000001</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.3915594</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.25576749999999998</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>69.230770000000007</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>10.22913</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.45</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0.4166667</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.92592589999999997</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>0.48076920000000001</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>0.48148150000000001</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.86666670000000001</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>82.556309999999996</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>50.400550000000003</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>12.02553</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>398.56020000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>1.3206018518518518E-2</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>88.672610000000006</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>94.848389999999995</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>72.613299999999995</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>69.627369999999999</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>69.627369999999999</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>37.5</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>37.5</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>36.170209999999997</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>6.1757809999999997</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.26676070000000002</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.33987089999999998</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>78.260869999999997</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>9.3087800000000005</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.38333329999999999</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>0.38333329999999999</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>0.5</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>0.47826089999999999</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.76666670000000003</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>77.394080000000002</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>44.137659999999997</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>7.422917</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>825.11540000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <v>1.3215277777777779E-2</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>55.184080000000002</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>55.110349999999997</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>35.496639999999999</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>29.934239999999999</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>29.934239999999999</v>
-      </c>
-      <c r="G18">
-        <v>33.333329999999997</v>
-      </c>
-      <c r="H18">
-        <v>39.13044</v>
       </c>
       <c r="I18">
         <v>33.333329999999997</v>
       </c>
       <c r="J18">
+        <v>39.13044</v>
+      </c>
+      <c r="K18">
+        <v>33.333329999999997</v>
+      </c>
+      <c r="L18">
         <v>7.3730470000000006E-2</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.15529470000000001</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>83.720929999999996</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>9.0499530000000004</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.36666670000000001</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>0.35</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>0.95454539999999999</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>0.48837209999999998</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>0.5</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.71666660000000004</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>70.271600000000007</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>39.17962</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>4.6138899999999996</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>1519.1510000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
         <v>1.3336805555555555E-2</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>100.301</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>49.149410000000003</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>174.13980000000001</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>174.0087</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>-174.0087</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>39.682540000000003</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>60.86956</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>44.705880000000001</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>51.151609999999998</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.3057376</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>43.373489999999997</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>16.157499999999999</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>1.0333330000000001</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0.35</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.3387097</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>0.25301200000000001</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>0.22580649999999999</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1.3833329999999999</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>25.08259</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>65.274140000000003</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>2.1317819999999998</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>882.48239999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
         <v>1.340625E-2</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>46.065429999999999</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>48.352780000000003</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>70.660839999999993</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>70.671279999999996</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>70.671279999999996</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>40</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>35</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>35.89743</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>2.2873540000000001</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.2314078</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>94.736850000000004</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>10.39592</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.31666670000000002</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>0.31666670000000002</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>1</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>0.5</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>0.5263158</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.63333329999999999</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>53.925840000000001</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>33.05847</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>4.5807900000000004</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>1959.2840000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <v>1.3413194444444445E-2</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>99.452389999999994</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>93.131100000000004</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>40.863799999999998</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>37.804969999999997</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>37.804969999999997</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>29.16667</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>24</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>25</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>6.3212890000000002</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>9.4955059999999994E-2</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.26100040000000002</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>76.595740000000006</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>12.178990000000001</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.38333329999999999</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>0.4</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>1.0434779999999999</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>0.51063829999999999</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>0.52173910000000001</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.78333339999999996</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>57.338050000000003</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>37.508009999999999</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>7.1334460000000002</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>822.45069999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f>AVERAGE(D2:D21)</f>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>AVERAGE(F2:F21)</f>
         <v>118.46848250000001</v>
       </c>
-      <c r="L23">
-        <f>AVERAGE(L1:L21)</f>
+      <c r="N23">
+        <f>AVERAGE(N1:N21)</f>
         <v>0.42026940588235301</v>
       </c>
-      <c r="M23">
-        <f>AVERAGE(M2:M21)</f>
+      <c r="O23">
+        <f>AVERAGE(O2:O21)</f>
         <v>65.469968499999993</v>
       </c>
-      <c r="S23">
-        <f>AVERAGE(S2:S21)</f>
+      <c r="U23">
+        <f>AVERAGE(U2:U21)</f>
         <v>0.46759416500000006</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <f>_xlfn.STDEV.S(D1:D21)</f>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>_xlfn.STDEV.S(F1:F21)</f>
         <v>41.933514406432934</v>
       </c>
-      <c r="L24">
-        <f>_xlfn.STDEV.S(L1:L21)</f>
+      <c r="N24">
+        <f>_xlfn.STDEV.S(N1:N21)</f>
         <v>0.5205024339025891</v>
       </c>
-      <c r="M24">
-        <f>_xlfn.STDEV.S(M1:M21)</f>
+      <c r="O24">
+        <f>_xlfn.STDEV.S(O1:O21)</f>
         <v>14.338378226789002</v>
       </c>
-      <c r="S24">
-        <f>_xlfn.STDEV.S(S1:S21)</f>
+      <c r="U24">
+        <f>_xlfn.STDEV.S(U1:U21)</f>
         <v>8.4407317705305809E-2</v>
       </c>
     </row>
